--- a/analyses/9_agriculture_analysis.xlsx
+++ b/analyses/9_agriculture_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22360" tabRatio="911" activeTab="6"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15400" tabRatio="911" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -10082,7 +10082,9 @@
   </sheetPr>
   <dimension ref="B2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -10637,7 +10639,7 @@
         <v>363</v>
       </c>
       <c r="L29" s="283" t="e">
-        <f>IF(E29&gt;0,TRUE,FALSE)</f>
+        <f>IF(E29&gt;=0,TRUE,FALSE)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="285" t="e">

--- a/analyses/9_agriculture_analysis.xlsx
+++ b/analyses/9_agriculture_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15400" tabRatio="911" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="911" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -7283,9 +7283,7 @@
   </sheetPr>
   <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -7365,7 +7363,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E11" s="296" t="e">
-        <f>D11/SUM($D$11:$D$13)</f>
+        <f>IF(SUM($D$11:$D$13)=0,0,D11/SUM($D$11:$D$13))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7379,7 +7377,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E12" s="296" t="e">
-        <f>D12/SUM($D$11:$D$13)</f>
+        <f>IF(SUM($D$11:$D$13)=0,0,D12/SUM($D$11:$D$13))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7393,7 +7391,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E13" s="296" t="e">
-        <f>D13/SUM($D$11:$D$13)</f>
+        <f>IF(SUM($D$11:$D$13)=0,1,D13/SUM($D$11:$D$13))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10082,9 +10080,7 @@
   </sheetPr>
   <dimension ref="B2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>

--- a/analyses/9_agriculture_analysis.xlsx
+++ b/analyses/9_agriculture_analysis.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roosdekok/Projects/etdataset/analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C93882-5AE5-2841-8029-001DA341AD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="911" activeTab="6"/>
+    <workbookView xWindow="12200" yWindow="2340" windowWidth="33840" windowHeight="25120" tabRatio="911" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -21,9 +27,10 @@
     <sheet name="Tech split of useful demand" sheetId="61" r:id="rId12"/>
     <sheet name="Fuel aggregation" sheetId="37" r:id="rId13"/>
     <sheet name="csv_agriculture_electricity_ps" sheetId="55" r:id="rId14"/>
+    <sheet name="csv_agriculture_crude_oil_eff" sheetId="62" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="base_year">Dashboard!$E$12</definedName>
@@ -31,8 +38,17 @@
     <definedName name="Final_demand_residences">'Fuel aggregation'!$L$11</definedName>
     <definedName name="kWh_MJ_conversion">[1]Assumptions!$C$177</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -41,44 +57,47 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>A satisfied Microsoft Office user</author>
   </authors>
   <commentList>
-    <comment ref="C83" authorId="0">
+    <comment ref="C83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">x  Not Applicable
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="D83" authorId="0">
+    <comment ref="D83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">x  Not Applicable
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="U83" authorId="0">
+    <comment ref="U83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">x  Not Applicable
 </t>
@@ -89,8 +108,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B41118A7-14B2-B745-9F24-43F010C64D14}</author>
+  </authors>
+  <commentList>
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{B41118A7-14B2-B745-9F24-43F010C64D14}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    this data is available, but not ready in the energy balance</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="385">
   <si>
     <t>Changelog</t>
   </si>
@@ -839,6 +876,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>) the energy balance resulting from the Power Plant-analysis (in TeraJoules) for your country in the table below. This data will be used in the analysis.</t>
@@ -1213,11 +1251,68 @@
   <si>
     <t>Geothermal (addressing electric energy input)</t>
   </si>
+  <si>
+    <t>input.diesel</t>
+  </si>
+  <si>
+    <t>input.biodiesel</t>
+  </si>
+  <si>
+    <t>input.kerosene</t>
+  </si>
+  <si>
+    <t>input.bio_kerosene</t>
+  </si>
+  <si>
+    <t>input.lpg</t>
+  </si>
+  <si>
+    <t>input.bio_oil</t>
+  </si>
+  <si>
+    <t>input.crude_oil</t>
+  </si>
+  <si>
+    <t>agriculture_final_demand_crude_oil_efficiency</t>
+  </si>
+  <si>
+    <t>Final demand per oil carrier</t>
+  </si>
+  <si>
+    <t>Kerosene</t>
+  </si>
+  <si>
+    <t>Bio-kerosene</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Biodiesel</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>Other bio-oil</t>
+  </si>
+  <si>
+    <t>Other oil</t>
+  </si>
+  <si>
+    <t>Share per oil carrier (%)</t>
+  </si>
+  <si>
+    <t>Final demand per oil carrier (TJ)</t>
+  </si>
+  <si>
+    <t>Moved biodiesel to oil instead of other (in fuel aggregation sheet)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1286,6 +1381,7 @@
       <sz val="16"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1300,6 +1396,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1307,11 +1404,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1319,6 +1418,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1332,6 +1432,7 @@
       <u/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1369,6 +1470,7 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1376,18 +1478,21 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1396,30 +1501,35 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3039,7 +3149,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="315">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3568,6 +3678,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3577,6 +3696,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="868">
     <cellStyle name="Comma" xfId="769" builtinId="3"/>
@@ -4445,10 +4565,76 @@
     <cellStyle name="Hyperlink" xfId="864" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="866" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="754"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="754" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4564,6 +4750,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4596,7 +4790,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="L-Shape 30"/>
+        <xdr:cNvPr id="31" name="L-Shape 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4661,7 +4861,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4724,7 +4930,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4787,7 +4999,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4849,7 +5067,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4912,7 +5136,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4973,7 +5203,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5029,7 +5265,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5092,7 +5334,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5142,7 +5390,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5192,7 +5446,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5248,7 +5508,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="17" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -5297,7 +5563,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5347,7 +5619,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5408,7 +5686,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 278"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="12" idx="3"/>
           <a:endCxn id="19" idx="1"/>
@@ -5459,7 +5743,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="21" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="3"/>
           <a:endCxn id="48" idx="2"/>
@@ -5510,7 +5800,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5566,7 +5862,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 278"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="62" idx="3"/>
           <a:endCxn id="48" idx="0"/>
@@ -5617,7 +5919,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Elbow Connector 23"/>
+        <xdr:cNvPr id="24" name="Elbow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
           <a:endCxn id="62" idx="1"/>
@@ -5668,7 +5976,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="27" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="3"/>
           <a:endCxn id="42" idx="1"/>
@@ -5719,7 +6033,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectangle 32"/>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5780,7 +6100,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Elbow Connector 33"/>
+        <xdr:cNvPr id="34" name="Elbow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="3"/>
           <a:endCxn id="48" idx="1"/>
@@ -5833,7 +6159,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rectangle 43"/>
+        <xdr:cNvPr id="44" name="Rectangle 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5893,7 +6225,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Rectangle 61"/>
+        <xdr:cNvPr id="62" name="Rectangle 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5954,7 +6292,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle 47"/>
+        <xdr:cNvPr id="48" name="Rectangle 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6015,7 +6359,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="51" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="3"/>
           <a:endCxn id="44" idx="1"/>
@@ -6066,7 +6416,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="35" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -6115,7 +6471,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="TextBox 39"/>
+        <xdr:cNvPr id="40" name="TextBox 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6178,7 +6540,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="TextBox 40"/>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6241,7 +6609,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 41"/>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6301,7 +6675,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="37" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="3"/>
           <a:endCxn id="22" idx="1"/>
@@ -6352,7 +6732,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Arrow Connector 278"/>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="62" idx="3"/>
           <a:endCxn id="44" idx="0"/>
@@ -6415,11 +6801,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s11270"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000062C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6427,6 +6816,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -6436,13 +6831,12 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
+                  <a:latin typeface="Lucida Grande" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Lucida Grande" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>import data</a:t>
               </a:r>
@@ -6476,11 +6870,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s11271"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000072C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6488,6 +6885,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -6497,13 +6900,12 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
+                  <a:latin typeface="Lucida Grande" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Lucida Grande" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>export to 'data/…/ouput' folder</a:t>
               </a:r>
@@ -6537,11 +6939,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s11272"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000082C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6549,6 +6954,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -6558,13 +6969,12 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
+                  <a:latin typeface="Lucida Grande" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Lucida Grande" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>optional: load different Dashbord values</a:t>
               </a:r>
@@ -6580,7 +6990,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
@@ -6680,6 +7090,12 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Roos de Kok" id="{545E17B4-1035-8D4F-BA18-D1180A000025}" userId="Roos de Kok" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7002,9 +7418,17 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D35" dT="2021-08-19T08:12:03.77" personId="{545E17B4-1035-8D4F-BA18-D1180A000025}" id="{B41118A7-14B2-B745-9F24-43F010C64D14}">
+    <text>this data is available, but not ready in the energy balance</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:D39"/>
@@ -7013,7 +7437,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -7022,12 +7446,12 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20">
+    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -7037,7 +7461,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
@@ -7047,7 +7471,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>246</v>
       </c>
@@ -7057,7 +7481,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>247</v>
       </c>
@@ -7067,17 +7491,17 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="226">
         <f>MAX(Changelog!B:B)</f>
-        <v>41586</v>
+        <v>44427</v>
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
@@ -7086,7 +7510,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
@@ -7095,19 +7519,19 @@
       </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="20"/>
       <c r="C13" s="8"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>10</v>
       </c>
@@ -7116,33 +7540,33 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="2:4" ht="16" thickBot="1">
+    <row r="15" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="2:4" ht="16" thickBot="1">
+    <row r="16" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
       <c r="C16" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
       <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
         <v>296</v>
       </c>
@@ -7151,113 +7575,113 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="20"/>
       <c r="C20" s="135" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="20"/>
       <c r="C21" s="133" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="20"/>
       <c r="C22" s="134" t="s">
         <v>231</v>
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="18"/>
       <c r="C23" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="18"/>
       <c r="C24" s="136" t="s">
         <v>232</v>
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
       <c r="C25" s="137" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="18"/>
       <c r="C26" s="112" t="s">
         <v>244</v>
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="19"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="18"/>
       <c r="C30" s="8"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="18"/>
       <c r="C31" s="8"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="18"/>
       <c r="C32" s="8"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="18"/>
       <c r="C33" s="8"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="18"/>
       <c r="C34" s="8"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="18"/>
       <c r="C35" s="8"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="18"/>
       <c r="C36" s="8"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="18"/>
       <c r="C37" s="8"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="18"/>
       <c r="C38" s="8"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="19"/>
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
@@ -7277,15 +7701,15 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
@@ -7295,12 +7719,12 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20">
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>86</v>
       </c>
@@ -7308,16 +7732,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="312" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="314"/>
-      <c r="D5" s="314"/>
-      <c r="E5" s="313"/>
-    </row>
-    <row r="6" spans="2:5" ht="16" thickBot="1"/>
-    <row r="7" spans="2:5">
+      <c r="C5" s="317"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="316"/>
+    </row>
+    <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>298</v>
       </c>
@@ -7325,13 +7749,13 @@
       <c r="D7" s="52"/>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="29"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="30"/>
     </row>
-    <row r="9" spans="2:5" ht="30">
+    <row r="9" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B9" s="297" t="s">
         <v>297</v>
       </c>
@@ -7345,7 +7769,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="207" t="s">
         <v>114</v>
       </c>
@@ -7353,7 +7777,7 @@
       <c r="D10" s="129"/>
       <c r="E10" s="295"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="94"/>
       <c r="C11" s="171" t="s">
         <v>258</v>
@@ -7367,7 +7791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="94"/>
       <c r="C12" s="17" t="s">
         <v>109</v>
@@ -7381,7 +7805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="94"/>
       <c r="C13" s="17" t="s">
         <v>344</v>
@@ -7395,7 +7819,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="16" thickBot="1">
+    <row r="14" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="46"/>
       <c r="C14" s="93"/>
       <c r="D14" s="190"/>
@@ -7416,8 +7840,8 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:K28"/>
@@ -7426,7 +7850,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="25.83203125" style="1" customWidth="1"/>
@@ -7438,7 +7862,7 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="20">
+    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
         <v>201</v>
       </c>
@@ -7452,7 +7876,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -7461,7 +7885,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>86</v>
       </c>
@@ -7475,21 +7899,21 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="2:11" ht="30" customHeight="1">
-      <c r="B5" s="312" t="s">
+    <row r="5" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="315" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="314"/>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="313"/>
+      <c r="C5" s="317"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="316"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -7501,7 +7925,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>201</v>
       </c>
@@ -7515,7 +7939,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="29"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -7527,7 +7951,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="30"/>
     </row>
-    <row r="9" spans="2:11" ht="30">
+    <row r="9" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B9" s="64" t="s">
         <v>249</v>
       </c>
@@ -7557,7 +7981,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="88" customFormat="1">
+    <row r="10" spans="2:11" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="49" t="s">
         <v>101</v>
       </c>
@@ -7591,7 +8015,7 @@
       <c r="J10" s="209"/>
       <c r="K10" s="199"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="66"/>
       <c r="C11" s="17"/>
       <c r="D11" s="163"/>
@@ -7603,7 +8027,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="41"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="48" t="s">
         <v>253</v>
       </c>
@@ -7617,7 +8041,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="66"/>
       <c r="C13" s="17" t="s">
         <v>95</v>
@@ -7634,7 +8058,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="66"/>
       <c r="C14" s="17" t="s">
         <v>97</v>
@@ -7651,7 +8075,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="66"/>
       <c r="C15" s="17" t="s">
         <v>98</v>
@@ -7668,7 +8092,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="41"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="66"/>
       <c r="C16" s="17" t="s">
         <v>109</v>
@@ -7685,7 +8109,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="66"/>
       <c r="C17" s="17" t="s">
         <v>259</v>
@@ -7702,7 +8126,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="41"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="66"/>
       <c r="C18" s="17" t="s">
         <v>96</v>
@@ -7719,7 +8143,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="41"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="29"/>
       <c r="C19" s="160" t="s">
         <v>228</v>
@@ -7751,7 +8175,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="2:11" s="126" customFormat="1" ht="16" thickTop="1">
+    <row r="20" spans="2:11" s="126" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B20" s="49"/>
       <c r="C20" s="158"/>
       <c r="D20" s="159"/>
@@ -7763,7 +8187,7 @@
       <c r="J20" s="210"/>
       <c r="K20" s="124"/>
     </row>
-    <row r="21" spans="2:11" s="126" customFormat="1">
+    <row r="21" spans="2:11" s="126" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="49" t="s">
         <v>286</v>
       </c>
@@ -7777,7 +8201,7 @@
       <c r="J21" s="210"/>
       <c r="K21" s="124"/>
     </row>
-    <row r="22" spans="2:11" s="126" customFormat="1">
+    <row r="22" spans="2:11" s="126" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="156"/>
       <c r="C22" s="160" t="s">
         <v>217</v>
@@ -7794,7 +8218,7 @@
       <c r="J22" s="210"/>
       <c r="K22" s="124"/>
     </row>
-    <row r="23" spans="2:11" s="126" customFormat="1" ht="16" thickBot="1">
+    <row r="23" spans="2:11" s="126" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="161"/>
       <c r="C23" s="204"/>
       <c r="D23" s="196"/>
@@ -7806,10 +8230,10 @@
       <c r="J23" s="211"/>
       <c r="K23" s="197"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D24" s="8"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C28" s="214"/>
     </row>
   </sheetData>
@@ -7817,12 +8241,12 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:I19">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7837,8 +8261,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:J16"/>
@@ -7847,7 +8271,7 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
@@ -7859,12 +8283,12 @@
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="20">
+    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>86</v>
       </c>
@@ -7873,17 +8297,17 @@
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:10" ht="62" customHeight="1">
-      <c r="B5" s="312" t="s">
+    <row r="5" spans="2:10" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="315" t="s">
         <v>352</v>
       </c>
-      <c r="C5" s="314"/>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="313"/>
-    </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="317"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="316"/>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>253</v>
       </c>
@@ -7896,7 +8320,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="34"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -7907,7 +8331,7 @@
       <c r="I8" s="30"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="2:10" ht="30">
+    <row r="9" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B9" s="291" t="s">
         <v>32</v>
       </c>
@@ -7932,7 +8356,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="36" t="s">
         <v>253</v>
       </c>
@@ -7961,7 +8385,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="34"/>
       <c r="C11" s="16" t="s">
         <v>97</v>
@@ -7988,7 +8412,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="34"/>
       <c r="C12" s="16" t="s">
         <v>98</v>
@@ -8015,7 +8439,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="34"/>
       <c r="C13" s="16" t="s">
         <v>365</v>
@@ -8042,7 +8466,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="34"/>
       <c r="C14" s="16" t="s">
         <v>259</v>
@@ -8068,7 +8492,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
       <c r="C15" s="16" t="s">
         <v>96</v>
@@ -8095,7 +8519,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="2:10" ht="16" thickBot="1">
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="46"/>
       <c r="C16" s="47"/>
       <c r="D16" s="190"/>
@@ -8120,17 +8544,17 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="126"/>
     <col min="2" max="2" width="36.33203125" style="126" customWidth="1"/>
@@ -8139,7 +8563,7 @@
     <col min="13" max="16384" width="10.83203125" style="126"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="20">
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
         <v>235</v>
       </c>
@@ -8150,7 +8574,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -8159,7 +8583,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>86</v>
       </c>
@@ -8170,19 +8594,19 @@
       <c r="G4" s="5"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:12" ht="80" customHeight="1">
-      <c r="B5" s="312" t="s">
+    <row r="5" spans="2:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="315" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="314"/>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="313"/>
+      <c r="C5" s="317"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="316"/>
       <c r="H5" s="177"/>
     </row>
-    <row r="6" spans="2:12" ht="16" thickBot="1"/>
-    <row r="7" spans="2:12">
+    <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>201</v>
       </c>
@@ -8197,7 +8621,7 @@
       <c r="K7" s="267"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="29"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -8210,7 +8634,7 @@
       <c r="K8" s="268"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="2:12" ht="30">
+    <row r="9" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B9" s="142" t="s">
         <v>94</v>
       </c>
@@ -8245,7 +8669,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="143"/>
       <c r="C10" s="175"/>
       <c r="D10" s="175"/>
@@ -8258,7 +8682,7 @@
       <c r="K10" s="271"/>
       <c r="L10" s="272"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="219" t="s">
         <v>283</v>
       </c>
@@ -8267,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="98">
-        <f>SUM('Corrected energy balance step 2'!U84:AQ84)</f>
+        <f>SUM('Corrected energy balance step 2'!U84:AQ84,'Corrected energy balance step 2'!AX84)</f>
         <v>0</v>
       </c>
       <c r="E11" s="98">
@@ -8283,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="98">
-        <f>SUM('Corrected energy balance step 2'!O84:R84,'Corrected energy balance step 2'!AR84:AT84,'Corrected energy balance step 2'!AV84:BE84,'Corrected energy balance step 2'!BG84:BH84,'Corrected energy balance step 2'!BI84:BK84)</f>
+        <f>SUM('Corrected energy balance step 2'!O84:R84,'Corrected energy balance step 2'!AR84:AT84,'Corrected energy balance step 2'!AV84:AW84,'Corrected energy balance step 2'!AY84:BE84,'Corrected energy balance step 2'!BG84:BH84,'Corrected energy balance step 2'!BI84:BK84)</f>
         <v>0</v>
       </c>
       <c r="I11" s="98">
@@ -8297,7 +8721,7 @@
       <c r="K11" s="275"/>
       <c r="L11" s="276"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="219" t="s">
         <v>284</v>
       </c>
@@ -8306,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="98">
-        <f>SUM('Corrected energy balance step 2'!U85:AQ85)</f>
+        <f>SUM('Corrected energy balance step 2'!U85:AQ85,'Corrected energy balance step 2'!AX85)</f>
         <v>0</v>
       </c>
       <c r="E12" s="98">
@@ -8322,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="98">
-        <f>SUM('Corrected energy balance step 2'!O85:R85,'Corrected energy balance step 2'!AR85:AT85,'Corrected energy balance step 2'!AV85:BE85,'Corrected energy balance step 2'!BG85:BH85,'Corrected energy balance step 2'!BI85:BK85)</f>
+        <f>SUM('Corrected energy balance step 2'!O85:R85,'Corrected energy balance step 2'!AR85:AT85,'Corrected energy balance step 2'!AV85:AW85,'Corrected energy balance step 2'!AY85:BE85,'Corrected energy balance step 2'!BG85:BH85,'Corrected energy balance step 2'!BI85:BK85)</f>
         <v>0</v>
       </c>
       <c r="I12" s="98">
@@ -8336,7 +8760,7 @@
       <c r="K12" s="277"/>
       <c r="L12" s="278"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="219"/>
       <c r="C13" s="98"/>
       <c r="D13" s="98"/>
@@ -8349,7 +8773,7 @@
       <c r="K13" s="279"/>
       <c r="L13" s="280"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="258" t="s">
         <v>308</v>
       </c>
@@ -8394,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="16" thickBot="1">
+    <row r="15" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="144"/>
       <c r="C15" s="176"/>
       <c r="D15" s="176"/>
@@ -8407,54 +8831,322 @@
       <c r="K15" s="273"/>
       <c r="L15" s="274"/>
     </row>
-    <row r="20" spans="11:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K20" s="263" t="s">
         <v>336</v>
       </c>
       <c r="L20" s="264"/>
     </row>
-    <row r="21" spans="11:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K21" s="210" t="s">
         <v>337</v>
       </c>
       <c r="L21" s="154"/>
     </row>
-    <row r="22" spans="11:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K22" s="210" t="str">
         <f>"- total demand of aggregated carriers"</f>
         <v>- total demand of aggregated carriers</v>
       </c>
       <c r="L22" s="154"/>
     </row>
-    <row r="23" spans="11:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K23" s="210" t="str">
         <f>"- total demand in energy balance (IEA)"</f>
         <v>- total demand in energy balance (IEA)</v>
       </c>
       <c r="L23" s="154"/>
     </row>
-    <row r="24" spans="11:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K24" s="210" t="s">
         <v>338</v>
       </c>
       <c r="L24" s="154"/>
     </row>
-    <row r="25" spans="11:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K25" s="210" t="s">
         <v>339</v>
       </c>
       <c r="L25" s="154"/>
     </row>
-    <row r="26" spans="11:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K26" s="210"/>
       <c r="L26" s="154"/>
     </row>
-    <row r="27" spans="11:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K27" s="265" t="s">
         <v>340</v>
       </c>
       <c r="L27" s="266">
         <f>K14-L14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="267"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="29"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="268"/>
+      <c r="L32" s="30"/>
+    </row>
+    <row r="33" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B33" s="142" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="F33" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="H33" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="I33" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="J33" s="65"/>
+      <c r="K33" s="269" t="s">
+        <v>341</v>
+      </c>
+      <c r="L33" s="270" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="143"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="271"/>
+      <c r="L34" s="272"/>
+    </row>
+    <row r="35" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="219" t="s">
+        <v>283</v>
+      </c>
+      <c r="C35" s="98">
+        <f>SUM('Corrected energy balance step 2'!AG84:AH84)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="98">
+        <v>0</v>
+      </c>
+      <c r="E35" s="98">
+        <f>'Corrected energy balance step 2'!AI84</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="98">
+        <f>'Corrected energy balance step 2'!AX84</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="98">
+        <f>'Corrected energy balance step 2'!AC84</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="98">
+        <f>SUM('Corrected energy balance step 2'!U84:W84,'Corrected energy balance step 2'!Y84:AB84,'Corrected energy balance step 2'!AD84:AF84,'Corrected energy balance step 2'!AJ84:AQ84)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="98">
+        <f>SUM('Corrected energy balance step 2'!AW84,'Corrected energy balance step 2'!AY84:AZ84)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="98"/>
+      <c r="K35" s="275"/>
+      <c r="L35" s="276"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="219"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="279"/>
+      <c r="L36" s="280"/>
+    </row>
+    <row r="37" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="312" t="s">
+        <v>383</v>
+      </c>
+      <c r="C37" s="313">
+        <f t="shared" ref="C37:I37" si="1">SUM(C35:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="163">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="163">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="163">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="163">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="163">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="163">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="98"/>
+      <c r="K37" s="279">
+        <f>SUM(C37:I37)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="280">
+        <f>SUM('Corrected energy balance step 2'!U84:AQ84,'Corrected energy balance step 2'!AX84,'Corrected energy balance step 2'!U85:AQ85,'Corrected energy balance step 2'!AX85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" s="258" t="s">
+        <v>382</v>
+      </c>
+      <c r="C38" s="314" t="e">
+        <f>C37/$K37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="314" t="e">
+        <f t="shared" ref="D38:I38" si="2">D37/$K37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="314" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="314" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="314" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="314" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="314" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="260"/>
+      <c r="K38" s="281" t="e">
+        <f>SUM(C38:I38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="282"/>
+    </row>
+    <row r="39" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="144"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="176"/>
+      <c r="E39" s="176"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
+      <c r="H39" s="176"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="176"/>
+      <c r="K39" s="273"/>
+      <c r="L39" s="274"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K44" s="263" t="s">
+        <v>336</v>
+      </c>
+      <c r="L44" s="264"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="210" t="s">
+        <v>337</v>
+      </c>
+      <c r="L45" s="154"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K46" s="210" t="str">
+        <f>"- total demand of aggregated oil carriers"</f>
+        <v>- total demand of aggregated oil carriers</v>
+      </c>
+      <c r="L46" s="154"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="210" t="str">
+        <f>"- total demand in energy balance (IEA)"</f>
+        <v>- total demand in energy balance (IEA)</v>
+      </c>
+      <c r="L47" s="154"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="210" t="s">
+        <v>338</v>
+      </c>
+      <c r="L48" s="154"/>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="210" t="s">
+        <v>339</v>
+      </c>
+      <c r="L49" s="154"/>
+    </row>
+    <row r="50" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K50" s="210"/>
+      <c r="L50" s="154"/>
+    </row>
+    <row r="51" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K51" s="265" t="s">
+        <v>340</v>
+      </c>
+      <c r="L51" s="266">
+        <f>K37-L37</f>
         <v>0</v>
       </c>
     </row>
@@ -8463,26 +9155,51 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:E15 C14:J14">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="notBetween">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="notBetween">
       <formula>-1</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="between">
       <formula>-1</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:L15">
-    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:E39 C38:J38">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notBetween">
+      <formula>-1</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
+      <formula>-1</formula>
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:L39">
+    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:I37">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8492,8 +9209,8 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
@@ -8502,17 +9219,17 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>288</v>
       </c>
@@ -8520,7 +9237,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>265</v>
       </c>
@@ -8529,7 +9246,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>266</v>
       </c>
@@ -8538,7 +9255,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>267</v>
       </c>
@@ -8558,18 +9275,115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB71174-5B70-6D41-91EC-8ABB28BFA866}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="318">
+        <f>IFERROR('Fuel aggregation'!$E$38,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" s="318">
+        <f>IFERROR('Fuel aggregation'!$F$38,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" s="318">
+        <f>IFERROR('Fuel aggregation'!$C$38,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="318">
+        <f>IFERROR('Fuel aggregation'!$D$38,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="318">
+        <f>IFERROR('Fuel aggregation'!$G$38,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="318">
+        <f>IFERROR('Fuel aggregation'!$I$38,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" s="318">
+        <f>1-SUM(B3:B8)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -8578,12 +9392,12 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20">
+    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="221" t="s">
         <v>3</v>
       </c>
@@ -8594,12 +9408,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="222"/>
       <c r="C5" s="14"/>
       <c r="D5" s="229"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="223">
         <v>41472</v>
       </c>
@@ -8610,7 +9424,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="223">
         <v>41474</v>
       </c>
@@ -8621,7 +9435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="223">
         <v>41485</v>
       </c>
@@ -8632,7 +9446,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="223">
         <v>41486</v>
       </c>
@@ -8643,7 +9457,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="223">
         <v>41492</v>
       </c>
@@ -8654,7 +9468,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="220">
         <v>41500</v>
       </c>
@@ -8665,7 +9479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="220">
         <v>41501</v>
       </c>
@@ -8676,7 +9490,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="220">
         <v>41502</v>
       </c>
@@ -8687,7 +9501,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="236">
         <v>41507</v>
       </c>
@@ -8698,7 +9512,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="223">
         <v>41519</v>
       </c>
@@ -8709,7 +9523,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="223">
         <v>41534</v>
       </c>
@@ -8720,7 +9534,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="223">
         <v>41562</v>
       </c>
@@ -8731,7 +9545,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30">
+    <row r="18" spans="2:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B18" s="223">
         <v>41578</v>
       </c>
@@ -8742,7 +9556,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30">
+    <row r="19" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B19" s="223">
         <v>41586</v>
       </c>
@@ -8753,32 +9567,38 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="223"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="230"/>
-    </row>
-    <row r="21" spans="2:4">
+    <row r="20" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B20" s="223">
+        <v>44427</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="D20" s="230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="223"/>
       <c r="C21" s="38"/>
       <c r="D21" s="230"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="223"/>
       <c r="C22" s="38"/>
       <c r="D22" s="230"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="215"/>
       <c r="C23" s="38"/>
       <c r="D23" s="230"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="215"/>
       <c r="C24" s="16"/>
       <c r="D24" s="230"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="19"/>
       <c r="C25" s="10"/>
       <c r="D25" s="231"/>
@@ -8795,8 +9615,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:C19"/>
@@ -8805,7 +9625,7 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -8813,12 +9633,12 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="20">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="99" t="s">
         <v>293</v>
       </c>
@@ -8826,11 +9646,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="54"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="2:3" ht="28" customHeight="1">
+    <row r="6" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
         <v>211</v>
       </c>
@@ -8838,7 +9658,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="28" customHeight="1">
+    <row r="7" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
         <v>0</v>
       </c>
@@ -8846,7 +9666,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="28" customHeight="1">
+    <row r="8" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="113" t="s">
         <v>20</v>
       </c>
@@ -8854,7 +9674,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="28" customHeight="1">
+    <row r="9" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="113" t="s">
         <v>22</v>
       </c>
@@ -8862,7 +9682,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="28" customHeight="1">
+    <row r="10" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="113" t="s">
         <v>212</v>
       </c>
@@ -8870,7 +9690,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="28" customHeight="1">
+    <row r="11" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="113" t="s">
         <v>23</v>
       </c>
@@ -8878,7 +9698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="28" customHeight="1">
+    <row r="12" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="140" t="s">
         <v>307</v>
       </c>
@@ -8886,7 +9706,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="28" customHeight="1">
+    <row r="13" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="140" t="s">
         <v>205</v>
       </c>
@@ -8894,7 +9714,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="28" customHeight="1">
+    <row r="14" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="139" t="s">
         <v>25</v>
       </c>
@@ -8902,7 +9722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="28" customHeight="1">
+    <row r="15" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="227" t="s">
         <v>262</v>
       </c>
@@ -8910,7 +9730,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="28" customHeight="1">
+    <row r="16" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="114" t="s">
         <v>201</v>
       </c>
@@ -8918,7 +9738,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="28" customHeight="1">
+    <row r="17" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="184" t="s">
         <v>237</v>
       </c>
@@ -8926,7 +9746,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="28" customHeight="1">
+    <row r="18" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="184" t="s">
         <v>225</v>
       </c>
@@ -8934,7 +9754,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="28" customHeight="1">
+    <row r="19" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="141" t="s">
         <v>292</v>
       </c>
@@ -8954,8 +9774,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:B18"/>
@@ -8964,76 +9784,76 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="143.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="20">
+    <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="99" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="30">
+    <row r="5" spans="2:2" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="101" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="116"/>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="118"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="56" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="56" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="56" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="56" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" s="119" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" s="57"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="99" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="60"/>
     </row>
-    <row r="18" spans="2:2" ht="105">
+    <row r="18" spans="2:2" ht="119" x14ac:dyDescent="0.2">
       <c r="B18" s="100" t="s">
         <v>215</v>
       </c>
@@ -9050,8 +9870,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:CC8"/>
@@ -9060,12 +9880,12 @@
       <selection activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="2.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:81" ht="30">
+    <row r="2" spans="2:81" ht="31" x14ac:dyDescent="0.2">
       <c r="B2" s="105" t="s">
         <v>282</v>
       </c>
@@ -9143,7 +9963,7 @@
       <c r="BV2" s="102"/>
       <c r="BW2" s="102"/>
     </row>
-    <row r="3" spans="2:81" ht="16" customHeight="1">
+    <row r="3" spans="2:81" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="106" t="s">
         <v>86</v>
       </c>
@@ -9221,7 +10041,7 @@
       <c r="BV3" s="102"/>
       <c r="BW3" s="102"/>
     </row>
-    <row r="4" spans="2:81" ht="15" customHeight="1">
+    <row r="4" spans="2:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="109" t="s">
         <v>210</v>
       </c>
@@ -9299,7 +10119,7 @@
       <c r="BV4" s="103"/>
       <c r="BW4" s="103"/>
     </row>
-    <row r="5" spans="2:81" ht="15" customHeight="1">
+    <row r="5" spans="2:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q5" s="104"/>
       <c r="R5" s="104"/>
       <c r="S5" s="104"/>
@@ -9360,7 +10180,7 @@
       <c r="BV5" s="104"/>
       <c r="BW5" s="104"/>
     </row>
-    <row r="6" spans="2:81" ht="23">
+    <row r="6" spans="2:81" ht="24" x14ac:dyDescent="0.2">
       <c r="B6" s="104"/>
       <c r="C6" s="120" t="s">
         <v>207</v>
@@ -9439,7 +10259,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="2:81">
+    <row r="8" spans="2:81" x14ac:dyDescent="0.2">
       <c r="CC8" s="95"/>
     </row>
   </sheetData>
@@ -9455,15 +10275,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
@@ -9472,38 +10292,38 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20">
+    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="2:4" ht="90" customHeight="1">
-      <c r="B5" s="312" t="s">
+    <row r="5" spans="2:4" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="315" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="313"/>
-    </row>
-    <row r="6" spans="2:4" ht="16" thickBot="1"/>
-    <row r="7" spans="2:4">
+      <c r="C5" s="316"/>
+    </row>
+    <row r="6" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="29"/>
       <c r="C8" s="8"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
         <v>32</v>
       </c>
@@ -9514,68 +10334,68 @@
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="89" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="35"/>
     </row>
-    <row r="11" spans="2:4" ht="45">
+    <row r="11" spans="2:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="29"/>
       <c r="C11" s="38" t="s">
         <v>261</v>
       </c>
       <c r="D11" s="40"/>
     </row>
-    <row r="12" spans="2:4" ht="45">
+    <row r="12" spans="2:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="29"/>
       <c r="C12" s="38" t="s">
         <v>239</v>
       </c>
       <c r="D12" s="40"/>
     </row>
-    <row r="13" spans="2:4" ht="30">
+    <row r="13" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="37"/>
       <c r="C13" s="90" t="s">
         <v>241</v>
       </c>
       <c r="D13" s="39"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="37"/>
       <c r="C14" s="90" t="s">
         <v>204</v>
       </c>
       <c r="D14" s="39"/>
     </row>
-    <row r="15" spans="2:4" ht="46" customHeight="1">
+    <row r="15" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="37"/>
       <c r="C15" s="90"/>
       <c r="D15" s="39"/>
     </row>
-    <row r="16" spans="2:4" ht="16" thickBot="1">
+    <row r="16" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="46"/>
       <c r="C16" s="121"/>
       <c r="D16" s="122"/>
     </row>
-    <row r="17" spans="2:4" s="8" customFormat="1" ht="16" thickBot="1">
+    <row r="17" spans="2:4" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="91"/>
       <c r="D17" s="92"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
         <v>206</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="29"/>
       <c r="C19" s="8"/>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="31" t="s">
         <v>32</v>
       </c>
@@ -9586,12 +10406,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="36"/>
       <c r="C21" s="14"/>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="37"/>
       <c r="C22" s="43" t="s">
         <v>289</v>
@@ -9600,23 +10420,23 @@
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="16" thickBot="1">
+    <row r="23" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="46"/>
       <c r="C23" s="47"/>
       <c r="D23" s="50"/>
     </row>
-    <row r="24" spans="2:4" ht="16" thickBot="1"/>
-    <row r="25" spans="2:4">
+    <row r="24" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="26" t="s">
         <v>218</v>
       </c>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="31" t="s">
         <v>240</v>
       </c>
@@ -9624,7 +10444,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="36" t="s">
         <v>220</v>
       </c>
@@ -9632,83 +10452,83 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="29"/>
       <c r="C29" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="29"/>
       <c r="C30" s="41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="29"/>
       <c r="C31" s="41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="29"/>
       <c r="C32" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="29"/>
       <c r="C33" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="29"/>
       <c r="C34" s="124" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="49"/>
       <c r="C35" s="124" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="29"/>
       <c r="C36" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="29"/>
       <c r="C37" s="41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="29"/>
       <c r="C38" s="41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="29"/>
       <c r="C39" s="41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="29"/>
       <c r="C40" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="42"/>
       <c r="C41" s="45"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="36" t="s">
         <v>348</v>
       </c>
@@ -9716,17 +10536,17 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="36"/>
       <c r="C43" s="41" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="125"/>
       <c r="C44" s="45"/>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="36" t="s">
         <v>222</v>
       </c>
@@ -9734,143 +10554,143 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="36"/>
       <c r="C46" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="29"/>
       <c r="C47" s="41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="29"/>
       <c r="C48" s="41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="29"/>
       <c r="C49" s="41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="29"/>
       <c r="C50" s="41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="29"/>
       <c r="C51" s="41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="29"/>
       <c r="C52" s="41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="29"/>
       <c r="C53" s="41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="29"/>
       <c r="C54" s="41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="29"/>
       <c r="C55" s="41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="29"/>
       <c r="C56" s="41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="29"/>
       <c r="C57" s="41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="29"/>
       <c r="C58" s="41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="29"/>
       <c r="C59" s="41" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="29"/>
       <c r="C60" s="41" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" s="29"/>
       <c r="C61" s="41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" s="29"/>
       <c r="C62" s="41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" s="29"/>
       <c r="C63" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" s="29"/>
       <c r="C64" s="41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="29"/>
       <c r="C65" s="41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="29"/>
       <c r="C66" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="29"/>
       <c r="C67" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="42"/>
       <c r="C68" s="45"/>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="36" t="s">
         <v>223</v>
       </c>
@@ -9878,17 +10698,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="29"/>
       <c r="C70" s="41" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="29"/>
       <c r="C71" s="41"/>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="48" t="s">
         <v>115</v>
       </c>
@@ -9896,11 +10716,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="36"/>
       <c r="C73" s="41"/>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="48" t="s">
         <v>114</v>
       </c>
@@ -9908,11 +10728,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="125"/>
       <c r="C75" s="45"/>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="49" t="s">
         <v>85</v>
       </c>
@@ -9920,138 +10740,138 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="29"/>
       <c r="C77" s="41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="29"/>
       <c r="C78" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="29"/>
       <c r="C79" s="41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="36"/>
       <c r="C80" s="41" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="36"/>
       <c r="C81" s="41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="36"/>
       <c r="C82" s="41" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="36"/>
       <c r="C83" s="41" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="36"/>
       <c r="C84" s="41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="36"/>
       <c r="C85" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="36"/>
       <c r="C86" s="41" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="2:3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="29"/>
       <c r="C87" s="41" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="2:3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="29"/>
       <c r="C88" s="41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="29"/>
       <c r="C89" s="41" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="36"/>
       <c r="C90" s="41" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="36"/>
       <c r="C91" s="41" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="36"/>
       <c r="C92" s="41" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="36"/>
       <c r="C93" s="41" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="36"/>
       <c r="C94" s="41" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="36"/>
       <c r="C95" s="41" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="36"/>
       <c r="C96" s="41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B97" s="29"/>
       <c r="C97" s="40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="16" thickBot="1">
+    <row r="98" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B98" s="46"/>
       <c r="C98" s="50"/>
     </row>
-    <row r="99" spans="2:3" ht="16" thickBot="1"/>
-    <row r="100" spans="2:3" ht="16" thickBot="1">
+    <row r="99" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="205" t="s">
         <v>350</v>
       </c>
@@ -10074,15 +10894,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
@@ -10103,7 +10923,7 @@
     <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="20">
+    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
@@ -10113,13 +10933,13 @@
       <c r="N2" s="14"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="2:16" ht="20">
+    <row r="3" spans="2:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="M3" s="233"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="51" t="s">
         <v>86</v>
       </c>
@@ -10133,13 +10953,13 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="2:16" ht="45" customHeight="1">
-      <c r="B5" s="312" t="s">
+    <row r="5" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="315" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="314"/>
-      <c r="D5" s="314"/>
-      <c r="E5" s="313"/>
+      <c r="C5" s="317"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="316"/>
       <c r="F5" s="177"/>
       <c r="G5" s="177"/>
       <c r="H5" s="177"/>
@@ -10147,8 +10967,8 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="2:16" ht="16" thickBot="1"/>
-    <row r="7" spans="2:16">
+    <row r="6" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>23</v>
       </c>
@@ -10168,7 +10988,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="29"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -10184,7 +11004,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
         <v>88</v>
       </c>
@@ -10220,7 +11040,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="48" t="s">
         <v>35</v>
       </c>
@@ -10243,7 +11063,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="213"/>
       <c r="C11" s="224" t="s">
         <v>246</v>
@@ -10264,7 +11084,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="213"/>
       <c r="C12" s="224" t="s">
         <v>299</v>
@@ -10286,7 +11106,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="213"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -10311,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="213"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -10328,7 +11148,7 @@
       <c r="O14" s="21"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="2:16" ht="15" customHeight="1">
+    <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="213"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -10354,7 +11174,7 @@
       <c r="O15" s="286"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="2:16" ht="15" customHeight="1">
+    <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="311"/>
       <c r="C16" s="309"/>
       <c r="D16" s="309"/>
@@ -10371,7 +11191,7 @@
       <c r="O16" s="286"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="2:16" ht="16" customHeight="1">
+    <row r="17" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="36" t="s">
         <v>253</v>
       </c>
@@ -10389,7 +11209,7 @@
       <c r="N17" s="91"/>
       <c r="O17" s="287"/>
     </row>
-    <row r="18" spans="2:16" ht="15" customHeight="1" thickBot="1">
+    <row r="18" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
       <c r="C18" s="8" t="s">
         <v>362</v>
@@ -10401,7 +11221,7 @@
       <c r="M18" s="148"/>
       <c r="N18" s="91"/>
     </row>
-    <row r="19" spans="2:16" ht="15" customHeight="1" thickBot="1">
+    <row r="19" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36"/>
       <c r="C19" s="305" t="s">
         <v>96</v>
@@ -10423,7 +11243,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="15" customHeight="1">
+    <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="36"/>
       <c r="C20" s="305" t="s">
         <v>95</v>
@@ -10446,7 +11266,7 @@
       <c r="N20" s="91"/>
       <c r="O20" s="287"/>
     </row>
-    <row r="21" spans="2:16" ht="15" customHeight="1">
+    <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="36"/>
       <c r="C21" s="305" t="s">
         <v>97</v>
@@ -10469,7 +11289,7 @@
       <c r="N21" s="91"/>
       <c r="O21" s="287"/>
     </row>
-    <row r="22" spans="2:16" ht="15" customHeight="1">
+    <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="36"/>
       <c r="C22" s="305" t="s">
         <v>98</v>
@@ -10492,7 +11312,7 @@
       <c r="N22" s="91"/>
       <c r="O22" s="287"/>
     </row>
-    <row r="23" spans="2:16" ht="15" customHeight="1">
+    <row r="23" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="36"/>
       <c r="C23" s="305" t="s">
         <v>109</v>
@@ -10515,7 +11335,7 @@
       <c r="N23" s="91"/>
       <c r="O23" s="287"/>
     </row>
-    <row r="24" spans="2:16" ht="15" customHeight="1">
+    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="36"/>
       <c r="C24" s="305" t="s">
         <v>259</v>
@@ -10538,7 +11358,7 @@
       <c r="N24" s="91"/>
       <c r="O24" s="287"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="36"/>
       <c r="C25" s="16"/>
       <c r="D25" s="8"/>
@@ -10552,7 +11372,7 @@
       <c r="L25" s="131"/>
       <c r="M25" s="148"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="36"/>
       <c r="C26" s="8" t="s">
         <v>361</v>
@@ -10570,7 +11390,7 @@
       <c r="N26" s="91"/>
       <c r="O26" s="287"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="36"/>
       <c r="C27" s="305" t="s">
         <v>356</v>
@@ -10591,7 +11411,7 @@
       <c r="L27" s="131"/>
       <c r="M27" s="148"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="36"/>
       <c r="C28" s="305" t="s">
         <v>357</v>
@@ -10614,7 +11434,7 @@
       <c r="N28" s="91"/>
       <c r="O28" s="287"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="36"/>
       <c r="C29" s="305" t="s">
         <v>358</v>
@@ -10649,7 +11469,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="16" thickBot="1">
+    <row r="30" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="46"/>
       <c r="C30" s="93"/>
       <c r="D30" s="93"/>
@@ -10665,7 +11485,7 @@
       <c r="N30" s="8"/>
       <c r="O30" s="21"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -10676,27 +11496,27 @@
     <mergeCell ref="B5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:H24">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:H24" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -10729,7 +11549,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -10752,7 +11571,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -10775,11 +11593,9 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -10790,20 +11606,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:BQ101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="AD8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="53.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -10813,15 +11629,15 @@
     <col min="70" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:67" ht="20">
+    <row r="2" spans="2:67" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="2:67" ht="15" customHeight="1">
+    <row r="3" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="2:67" ht="15" customHeight="1">
+    <row r="4" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="117" t="s">
         <v>86</v>
       </c>
@@ -10832,7 +11648,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:67" ht="60" customHeight="1">
+    <row r="5" spans="2:67" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="151" t="s">
         <v>243</v>
       </c>
@@ -10843,10 +11659,10 @@
       <c r="G5" s="150"/>
       <c r="H5" s="150"/>
     </row>
-    <row r="6" spans="2:67" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="68" t="s">
         <v>102</v>
       </c>
@@ -11046,7 +11862,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="2:67">
+    <row r="8" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B8" s="72" t="s">
         <v>117</v>
       </c>
@@ -11116,7 +11932,7 @@
       <c r="BN8" s="58"/>
       <c r="BO8" s="74"/>
     </row>
-    <row r="9" spans="2:67">
+    <row r="9" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B9" s="75" t="s">
         <v>118</v>
       </c>
@@ -11186,7 +12002,7 @@
       <c r="BN9" s="59"/>
       <c r="BO9" s="41"/>
     </row>
-    <row r="10" spans="2:67">
+    <row r="10" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B10" s="75" t="s">
         <v>119</v>
       </c>
@@ -11256,7 +12072,7 @@
       <c r="BN10" s="59"/>
       <c r="BO10" s="41"/>
     </row>
-    <row r="11" spans="2:67">
+    <row r="11" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B11" s="75" t="s">
         <v>120</v>
       </c>
@@ -11326,7 +12142,7 @@
       <c r="BN11" s="59"/>
       <c r="BO11" s="41"/>
     </row>
-    <row r="12" spans="2:67">
+    <row r="12" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B12" s="75" t="s">
         <v>121</v>
       </c>
@@ -11396,7 +12212,7 @@
       <c r="BN12" s="59"/>
       <c r="BO12" s="41"/>
     </row>
-    <row r="13" spans="2:67">
+    <row r="13" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B13" s="75" t="s">
         <v>122</v>
       </c>
@@ -11466,7 +12282,7 @@
       <c r="BN13" s="59"/>
       <c r="BO13" s="41"/>
     </row>
-    <row r="14" spans="2:67" ht="16" thickBot="1">
+    <row r="14" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="75" t="s">
         <v>123</v>
       </c>
@@ -11536,7 +12352,7 @@
       <c r="BN14" s="59"/>
       <c r="BO14" s="41"/>
     </row>
-    <row r="15" spans="2:67" ht="16" thickBot="1">
+    <row r="15" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="76" t="s">
         <v>124</v>
       </c>
@@ -11606,7 +12422,7 @@
       <c r="BN15" s="78"/>
       <c r="BO15" s="79"/>
     </row>
-    <row r="16" spans="2:67">
+    <row r="16" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B16" s="75" t="s">
         <v>125</v>
       </c>
@@ -11676,7 +12492,7 @@
       <c r="BN16" s="59"/>
       <c r="BO16" s="41"/>
     </row>
-    <row r="17" spans="2:67" ht="16" thickBot="1">
+    <row r="17" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="75" t="s">
         <v>126</v>
       </c>
@@ -11746,7 +12562,7 @@
       <c r="BN17" s="59"/>
       <c r="BO17" s="41"/>
     </row>
-    <row r="18" spans="2:67" ht="16" thickBot="1">
+    <row r="18" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="76" t="s">
         <v>127</v>
       </c>
@@ -11816,7 +12632,7 @@
       <c r="BN18" s="78"/>
       <c r="BO18" s="79"/>
     </row>
-    <row r="19" spans="2:67">
+    <row r="19" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B19" s="75" t="s">
         <v>128</v>
       </c>
@@ -11886,7 +12702,7 @@
       <c r="BN19" s="59"/>
       <c r="BO19" s="41"/>
     </row>
-    <row r="20" spans="2:67">
+    <row r="20" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B20" s="75" t="s">
         <v>129</v>
       </c>
@@ -11956,7 +12772,7 @@
       <c r="BN20" s="59"/>
       <c r="BO20" s="41"/>
     </row>
-    <row r="21" spans="2:67">
+    <row r="21" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B21" s="75" t="s">
         <v>130</v>
       </c>
@@ -12026,7 +12842,7 @@
       <c r="BN21" s="59"/>
       <c r="BO21" s="41"/>
     </row>
-    <row r="22" spans="2:67">
+    <row r="22" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B22" s="75" t="s">
         <v>131</v>
       </c>
@@ -12096,7 +12912,7 @@
       <c r="BN22" s="59"/>
       <c r="BO22" s="41"/>
     </row>
-    <row r="23" spans="2:67">
+    <row r="23" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B23" s="75" t="s">
         <v>132</v>
       </c>
@@ -12166,7 +12982,7 @@
       <c r="BN23" s="59"/>
       <c r="BO23" s="41"/>
     </row>
-    <row r="24" spans="2:67">
+    <row r="24" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B24" s="80" t="s">
         <v>133</v>
       </c>
@@ -12236,7 +13052,7 @@
       <c r="BN24" s="81"/>
       <c r="BO24" s="45"/>
     </row>
-    <row r="25" spans="2:67">
+    <row r="25" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B25" s="75" t="s">
         <v>134</v>
       </c>
@@ -12306,7 +13122,7 @@
       <c r="BN25" s="59"/>
       <c r="BO25" s="41"/>
     </row>
-    <row r="26" spans="2:67">
+    <row r="26" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B26" s="75" t="s">
         <v>135</v>
       </c>
@@ -12376,7 +13192,7 @@
       <c r="BN26" s="59"/>
       <c r="BO26" s="41"/>
     </row>
-    <row r="27" spans="2:67">
+    <row r="27" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B27" s="75" t="s">
         <v>136</v>
       </c>
@@ -12446,7 +13262,7 @@
       <c r="BN27" s="59"/>
       <c r="BO27" s="41"/>
     </row>
-    <row r="28" spans="2:67">
+    <row r="28" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B28" s="75" t="s">
         <v>137</v>
       </c>
@@ -12516,7 +13332,7 @@
       <c r="BN28" s="59"/>
       <c r="BO28" s="41"/>
     </row>
-    <row r="29" spans="2:67">
+    <row r="29" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B29" s="75" t="s">
         <v>138</v>
       </c>
@@ -12586,7 +13402,7 @@
       <c r="BN29" s="59"/>
       <c r="BO29" s="41"/>
     </row>
-    <row r="30" spans="2:67">
+    <row r="30" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B30" s="75" t="s">
         <v>139</v>
       </c>
@@ -12656,7 +13472,7 @@
       <c r="BN30" s="59"/>
       <c r="BO30" s="41"/>
     </row>
-    <row r="31" spans="2:67">
+    <row r="31" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B31" s="75" t="s">
         <v>140</v>
       </c>
@@ -12726,7 +13542,7 @@
       <c r="BN31" s="59"/>
       <c r="BO31" s="41"/>
     </row>
-    <row r="32" spans="2:67">
+    <row r="32" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B32" s="75" t="s">
         <v>141</v>
       </c>
@@ -12796,7 +13612,7 @@
       <c r="BN32" s="59"/>
       <c r="BO32" s="41"/>
     </row>
-    <row r="33" spans="2:67">
+    <row r="33" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B33" s="75" t="s">
         <v>142</v>
       </c>
@@ -12866,7 +13682,7 @@
       <c r="BN33" s="59"/>
       <c r="BO33" s="41"/>
     </row>
-    <row r="34" spans="2:67">
+    <row r="34" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B34" s="75" t="s">
         <v>143</v>
       </c>
@@ -12936,7 +13752,7 @@
       <c r="BN34" s="59"/>
       <c r="BO34" s="41"/>
     </row>
-    <row r="35" spans="2:67">
+    <row r="35" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B35" s="75" t="s">
         <v>144</v>
       </c>
@@ -13006,7 +13822,7 @@
       <c r="BN35" s="59"/>
       <c r="BO35" s="41"/>
     </row>
-    <row r="36" spans="2:67">
+    <row r="36" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B36" s="75" t="s">
         <v>145</v>
       </c>
@@ -13076,7 +13892,7 @@
       <c r="BN36" s="59"/>
       <c r="BO36" s="41"/>
     </row>
-    <row r="37" spans="2:67">
+    <row r="37" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B37" s="75" t="s">
         <v>146</v>
       </c>
@@ -13146,7 +13962,7 @@
       <c r="BN37" s="59"/>
       <c r="BO37" s="41"/>
     </row>
-    <row r="38" spans="2:67">
+    <row r="38" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B38" s="75" t="s">
         <v>147</v>
       </c>
@@ -13216,7 +14032,7 @@
       <c r="BN38" s="59"/>
       <c r="BO38" s="41"/>
     </row>
-    <row r="39" spans="2:67" ht="16" thickBot="1">
+    <row r="39" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="75" t="s">
         <v>148</v>
       </c>
@@ -13286,7 +14102,7 @@
       <c r="BN39" s="59"/>
       <c r="BO39" s="41"/>
     </row>
-    <row r="40" spans="2:67" ht="16" thickBot="1">
+    <row r="40" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="76" t="s">
         <v>149</v>
       </c>
@@ -13356,7 +14172,7 @@
       <c r="BN40" s="78"/>
       <c r="BO40" s="79"/>
     </row>
-    <row r="41" spans="2:67">
+    <row r="41" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B41" s="75" t="s">
         <v>150</v>
       </c>
@@ -13426,7 +14242,7 @@
       <c r="BN41" s="59"/>
       <c r="BO41" s="41"/>
     </row>
-    <row r="42" spans="2:67">
+    <row r="42" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B42" s="75" t="s">
         <v>151</v>
       </c>
@@ -13496,7 +14312,7 @@
       <c r="BN42" s="59"/>
       <c r="BO42" s="41"/>
     </row>
-    <row r="43" spans="2:67">
+    <row r="43" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B43" s="75" t="s">
         <v>137</v>
       </c>
@@ -13566,7 +14382,7 @@
       <c r="BN43" s="59"/>
       <c r="BO43" s="41"/>
     </row>
-    <row r="44" spans="2:67">
+    <row r="44" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B44" s="75" t="s">
         <v>138</v>
       </c>
@@ -13636,7 +14452,7 @@
       <c r="BN44" s="59"/>
       <c r="BO44" s="41"/>
     </row>
-    <row r="45" spans="2:67">
+    <row r="45" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B45" s="75" t="s">
         <v>152</v>
       </c>
@@ -13706,7 +14522,7 @@
       <c r="BN45" s="59"/>
       <c r="BO45" s="41"/>
     </row>
-    <row r="46" spans="2:67">
+    <row r="46" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B46" s="75" t="s">
         <v>139</v>
       </c>
@@ -13776,7 +14592,7 @@
       <c r="BN46" s="59"/>
       <c r="BO46" s="41"/>
     </row>
-    <row r="47" spans="2:67">
+    <row r="47" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B47" s="75" t="s">
         <v>140</v>
       </c>
@@ -13846,7 +14662,7 @@
       <c r="BN47" s="59"/>
       <c r="BO47" s="41"/>
     </row>
-    <row r="48" spans="2:67">
+    <row r="48" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B48" s="75" t="s">
         <v>141</v>
       </c>
@@ -13916,7 +14732,7 @@
       <c r="BN48" s="59"/>
       <c r="BO48" s="41"/>
     </row>
-    <row r="49" spans="2:67">
+    <row r="49" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B49" s="75" t="s">
         <v>142</v>
       </c>
@@ -13986,7 +14802,7 @@
       <c r="BN49" s="59"/>
       <c r="BO49" s="41"/>
     </row>
-    <row r="50" spans="2:67">
+    <row r="50" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B50" s="75" t="s">
         <v>144</v>
       </c>
@@ -14056,7 +14872,7 @@
       <c r="BN50" s="59"/>
       <c r="BO50" s="41"/>
     </row>
-    <row r="51" spans="2:67">
+    <row r="51" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B51" s="75" t="s">
         <v>153</v>
       </c>
@@ -14126,7 +14942,7 @@
       <c r="BN51" s="59"/>
       <c r="BO51" s="41"/>
     </row>
-    <row r="52" spans="2:67">
+    <row r="52" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B52" s="75" t="s">
         <v>145</v>
       </c>
@@ -14196,7 +15012,7 @@
       <c r="BN52" s="59"/>
       <c r="BO52" s="41"/>
     </row>
-    <row r="53" spans="2:67">
+    <row r="53" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B53" s="75" t="s">
         <v>154</v>
       </c>
@@ -14266,7 +15082,7 @@
       <c r="BN53" s="59"/>
       <c r="BO53" s="41"/>
     </row>
-    <row r="54" spans="2:67">
+    <row r="54" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B54" s="75" t="s">
         <v>155</v>
       </c>
@@ -14336,7 +15152,7 @@
       <c r="BN54" s="59"/>
       <c r="BO54" s="41"/>
     </row>
-    <row r="55" spans="2:67">
+    <row r="55" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B55" s="75" t="s">
         <v>156</v>
       </c>
@@ -14406,7 +15222,7 @@
       <c r="BN55" s="59"/>
       <c r="BO55" s="41"/>
     </row>
-    <row r="56" spans="2:67">
+    <row r="56" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B56" s="75" t="s">
         <v>147</v>
       </c>
@@ -14476,7 +15292,7 @@
       <c r="BN56" s="59"/>
       <c r="BO56" s="41"/>
     </row>
-    <row r="57" spans="2:67">
+    <row r="57" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B57" s="75" t="s">
         <v>157</v>
       </c>
@@ -14546,7 +15362,7 @@
       <c r="BN57" s="59"/>
       <c r="BO57" s="41"/>
     </row>
-    <row r="58" spans="2:67" ht="16" thickBot="1">
+    <row r="58" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="75" t="s">
         <v>158</v>
       </c>
@@ -14616,7 +15432,7 @@
       <c r="BN58" s="59"/>
       <c r="BO58" s="41"/>
     </row>
-    <row r="59" spans="2:67" ht="16" thickBot="1">
+    <row r="59" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="76" t="s">
         <v>159</v>
       </c>
@@ -14686,7 +15502,7 @@
       <c r="BN59" s="78"/>
       <c r="BO59" s="79"/>
     </row>
-    <row r="60" spans="2:67" ht="16" thickBot="1">
+    <row r="60" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="76" t="s">
         <v>27</v>
       </c>
@@ -14756,7 +15572,7 @@
       <c r="BN60" s="78"/>
       <c r="BO60" s="79"/>
     </row>
-    <row r="61" spans="2:67">
+    <row r="61" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B61" s="75" t="s">
         <v>160</v>
       </c>
@@ -14826,7 +15642,7 @@
       <c r="BN61" s="59"/>
       <c r="BO61" s="41"/>
     </row>
-    <row r="62" spans="2:67">
+    <row r="62" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B62" s="75" t="s">
         <v>161</v>
       </c>
@@ -14896,7 +15712,7 @@
       <c r="BN62" s="59"/>
       <c r="BO62" s="41"/>
     </row>
-    <row r="63" spans="2:67">
+    <row r="63" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B63" s="75" t="s">
         <v>162</v>
       </c>
@@ -14966,7 +15782,7 @@
       <c r="BN63" s="59"/>
       <c r="BO63" s="41"/>
     </row>
-    <row r="64" spans="2:67">
+    <row r="64" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B64" s="75" t="s">
         <v>163</v>
       </c>
@@ -15036,7 +15852,7 @@
       <c r="BN64" s="59"/>
       <c r="BO64" s="41"/>
     </row>
-    <row r="65" spans="2:67">
+    <row r="65" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B65" s="75" t="s">
         <v>164</v>
       </c>
@@ -15106,7 +15922,7 @@
       <c r="BN65" s="59"/>
       <c r="BO65" s="41"/>
     </row>
-    <row r="66" spans="2:67">
+    <row r="66" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B66" s="75" t="s">
         <v>165</v>
       </c>
@@ -15176,7 +15992,7 @@
       <c r="BN66" s="59"/>
       <c r="BO66" s="41"/>
     </row>
-    <row r="67" spans="2:67">
+    <row r="67" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B67" s="75" t="s">
         <v>166</v>
       </c>
@@ -15246,7 +16062,7 @@
       <c r="BN67" s="59"/>
       <c r="BO67" s="41"/>
     </row>
-    <row r="68" spans="2:67">
+    <row r="68" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B68" s="75" t="s">
         <v>167</v>
       </c>
@@ -15316,7 +16132,7 @@
       <c r="BN68" s="59"/>
       <c r="BO68" s="41"/>
     </row>
-    <row r="69" spans="2:67">
+    <row r="69" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B69" s="75" t="s">
         <v>168</v>
       </c>
@@ -15386,7 +16202,7 @@
       <c r="BN69" s="59"/>
       <c r="BO69" s="41"/>
     </row>
-    <row r="70" spans="2:67">
+    <row r="70" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B70" s="75" t="s">
         <v>169</v>
       </c>
@@ -15456,7 +16272,7 @@
       <c r="BN70" s="59"/>
       <c r="BO70" s="41"/>
     </row>
-    <row r="71" spans="2:67">
+    <row r="71" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B71" s="75" t="s">
         <v>170</v>
       </c>
@@ -15526,7 +16342,7 @@
       <c r="BN71" s="59"/>
       <c r="BO71" s="41"/>
     </row>
-    <row r="72" spans="2:67">
+    <row r="72" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B72" s="75" t="s">
         <v>171</v>
       </c>
@@ -15596,7 +16412,7 @@
       <c r="BN72" s="59"/>
       <c r="BO72" s="41"/>
     </row>
-    <row r="73" spans="2:67" ht="16" thickBot="1">
+    <row r="73" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="75" t="s">
         <v>172</v>
       </c>
@@ -15666,7 +16482,7 @@
       <c r="BN73" s="59"/>
       <c r="BO73" s="41"/>
     </row>
-    <row r="74" spans="2:67" ht="16" thickBot="1">
+    <row r="74" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="76" t="s">
         <v>173</v>
       </c>
@@ -15736,7 +16552,7 @@
       <c r="BN74" s="78"/>
       <c r="BO74" s="79"/>
     </row>
-    <row r="75" spans="2:67">
+    <row r="75" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B75" s="75" t="s">
         <v>174</v>
       </c>
@@ -15806,7 +16622,7 @@
       <c r="BN75" s="59"/>
       <c r="BO75" s="41"/>
     </row>
-    <row r="76" spans="2:67">
+    <row r="76" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B76" s="75" t="s">
         <v>175</v>
       </c>
@@ -15876,7 +16692,7 @@
       <c r="BN76" s="59"/>
       <c r="BO76" s="41"/>
     </row>
-    <row r="77" spans="2:67">
+    <row r="77" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B77" s="75" t="s">
         <v>176</v>
       </c>
@@ -15946,7 +16762,7 @@
       <c r="BN77" s="59"/>
       <c r="BO77" s="41"/>
     </row>
-    <row r="78" spans="2:67">
+    <row r="78" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B78" s="75" t="s">
         <v>177</v>
       </c>
@@ -16016,7 +16832,7 @@
       <c r="BN78" s="59"/>
       <c r="BO78" s="41"/>
     </row>
-    <row r="79" spans="2:67">
+    <row r="79" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B79" s="75" t="s">
         <v>178</v>
       </c>
@@ -16086,7 +16902,7 @@
       <c r="BN79" s="59"/>
       <c r="BO79" s="41"/>
     </row>
-    <row r="80" spans="2:67" ht="16" thickBot="1">
+    <row r="80" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="75" t="s">
         <v>179</v>
       </c>
@@ -16156,7 +16972,7 @@
       <c r="BN80" s="59"/>
       <c r="BO80" s="41"/>
     </row>
-    <row r="81" spans="2:69" ht="16" thickBot="1">
+    <row r="81" spans="2:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" s="76" t="s">
         <v>85</v>
       </c>
@@ -16226,7 +17042,7 @@
       <c r="BN81" s="78"/>
       <c r="BO81" s="79"/>
     </row>
-    <row r="82" spans="2:69">
+    <row r="82" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B82" s="75" t="s">
         <v>180</v>
       </c>
@@ -16296,7 +17112,7 @@
       <c r="BN82" s="59"/>
       <c r="BO82" s="41"/>
     </row>
-    <row r="83" spans="2:69">
+    <row r="83" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B83" s="75" t="s">
         <v>181</v>
       </c>
@@ -16367,7 +17183,7 @@
       <c r="BO83"/>
       <c r="BP83" s="29"/>
     </row>
-    <row r="84" spans="2:69">
+    <row r="84" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B84" s="75" t="s">
         <v>182</v>
       </c>
@@ -16438,7 +17254,7 @@
       <c r="BO84" s="41"/>
       <c r="BQ84" s="178"/>
     </row>
-    <row r="85" spans="2:69">
+    <row r="85" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B85" s="75" t="s">
         <v>183</v>
       </c>
@@ -16509,7 +17325,7 @@
       <c r="BO85" s="41"/>
       <c r="BQ85" s="180"/>
     </row>
-    <row r="86" spans="2:69" ht="16" thickBot="1">
+    <row r="86" spans="2:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="75" t="s">
         <v>184</v>
       </c>
@@ -16579,7 +17395,7 @@
       <c r="BN86" s="59"/>
       <c r="BO86" s="41"/>
     </row>
-    <row r="87" spans="2:69" ht="16" thickBot="1">
+    <row r="87" spans="2:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="76" t="s">
         <v>185</v>
       </c>
@@ -16649,7 +17465,7 @@
       <c r="BN87" s="78"/>
       <c r="BO87" s="79"/>
     </row>
-    <row r="88" spans="2:69">
+    <row r="88" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B88" s="75" t="s">
         <v>186</v>
       </c>
@@ -16719,7 +17535,7 @@
       <c r="BN88" s="59"/>
       <c r="BO88" s="41"/>
     </row>
-    <row r="89" spans="2:69">
+    <row r="89" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B89" s="75" t="s">
         <v>187</v>
       </c>
@@ -16789,7 +17605,7 @@
       <c r="BN89" s="59"/>
       <c r="BO89" s="41"/>
     </row>
-    <row r="90" spans="2:69">
+    <row r="90" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B90" s="75" t="s">
         <v>188</v>
       </c>
@@ -16859,7 +17675,7 @@
       <c r="BN90" s="59"/>
       <c r="BO90" s="41"/>
     </row>
-    <row r="91" spans="2:69" ht="16" thickBot="1">
+    <row r="91" spans="2:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B91" s="75" t="s">
         <v>189</v>
       </c>
@@ -16929,7 +17745,7 @@
       <c r="BN91" s="59"/>
       <c r="BO91" s="41"/>
     </row>
-    <row r="92" spans="2:69" ht="16" thickBot="1">
+    <row r="92" spans="2:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B92" s="76" t="s">
         <v>190</v>
       </c>
@@ -16999,7 +17815,7 @@
       <c r="BN92" s="78"/>
       <c r="BO92" s="79"/>
     </row>
-    <row r="93" spans="2:69">
+    <row r="93" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B93" s="75" t="s">
         <v>191</v>
       </c>
@@ -17069,7 +17885,7 @@
       <c r="BN93" s="59"/>
       <c r="BO93" s="41"/>
     </row>
-    <row r="94" spans="2:69">
+    <row r="94" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B94" s="75" t="s">
         <v>192</v>
       </c>
@@ -17139,7 +17955,7 @@
       <c r="BN94" s="59"/>
       <c r="BO94" s="41"/>
     </row>
-    <row r="95" spans="2:69">
+    <row r="95" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B95" s="75" t="s">
         <v>193</v>
       </c>
@@ -17209,7 +18025,7 @@
       <c r="BN95" s="59"/>
       <c r="BO95" s="41"/>
     </row>
-    <row r="96" spans="2:69" ht="16" thickBot="1">
+    <row r="96" spans="2:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B96" s="75" t="s">
         <v>194</v>
       </c>
@@ -17279,7 +18095,7 @@
       <c r="BN96" s="59"/>
       <c r="BO96" s="41"/>
     </row>
-    <row r="97" spans="2:67" ht="16" thickBot="1">
+    <row r="97" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="76" t="s">
         <v>195</v>
       </c>
@@ -17349,7 +18165,7 @@
       <c r="BN97" s="78"/>
       <c r="BO97" s="79"/>
     </row>
-    <row r="98" spans="2:67">
+    <row r="98" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B98" s="75" t="s">
         <v>196</v>
       </c>
@@ -17419,7 +18235,7 @@
       <c r="BN98" s="59"/>
       <c r="BO98" s="41"/>
     </row>
-    <row r="99" spans="2:67">
+    <row r="99" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B99" s="75" t="s">
         <v>197</v>
       </c>
@@ -17489,7 +18305,7 @@
       <c r="BN99" s="59"/>
       <c r="BO99" s="41"/>
     </row>
-    <row r="100" spans="2:67">
+    <row r="100" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B100" s="75" t="s">
         <v>198</v>
       </c>
@@ -17559,7 +18375,7 @@
       <c r="BN100" s="59"/>
       <c r="BO100" s="41"/>
     </row>
-    <row r="101" spans="2:67" ht="16" thickBot="1">
+    <row r="101" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B101" s="82" t="s">
         <v>199</v>
       </c>
@@ -17641,15 +18457,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -17662,7 +18478,7 @@
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="20">
+    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
         <v>205</v>
       </c>
@@ -17672,7 +18488,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>86</v>
       </c>
@@ -17685,7 +18501,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="254"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="245" t="s">
         <v>334</v>
       </c>
@@ -17698,7 +18514,7 @@
       <c r="I5" s="256"/>
       <c r="J5" s="256"/>
     </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1">
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -17706,7 +18522,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:10" ht="30">
+    <row r="7" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B7" s="248" t="s">
         <v>329</v>
       </c>
@@ -17729,7 +18545,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="30" customHeight="1">
+    <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="257" t="s">
         <v>94</v>
       </c>
@@ -17750,7 +18566,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="146"/>
     </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1">
+    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="42"/>
       <c r="C9" s="10"/>
       <c r="D9" s="67"/>
@@ -17765,7 +18581,7 @@
       <c r="I9" s="67"/>
       <c r="J9" s="147"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="49" t="s">
         <v>253</v>
       </c>
@@ -17778,7 +18594,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="146"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="66"/>
       <c r="C11" s="152" t="s">
         <v>255</v>
@@ -17801,7 +18617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="66"/>
       <c r="C12" s="152" t="s">
         <v>256</v>
@@ -17824,7 +18640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="66"/>
       <c r="C13" s="152" t="s">
         <v>257</v>
@@ -17847,7 +18663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="66"/>
       <c r="C14" s="152" t="s">
         <v>258</v>
@@ -17870,7 +18686,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="66"/>
       <c r="C15" s="152" t="s">
         <v>109</v>
@@ -17893,7 +18709,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="16" thickBot="1">
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="46"/>
       <c r="C16" s="93"/>
       <c r="D16" s="93"/>
